--- a/resources/excel/22.05.2023.xlsx
+++ b/resources/excel/22.05.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidojezeljic/Documents/vidoje/projects/github/rkl/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C292F59D-DD1D-AC41-98E9-0BF9AE56DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE87B9-D001-524E-992A-CDE408F6C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="-28300" windowWidth="24360" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Datum:</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>V20</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
+    <t>Beograd</t>
+  </si>
+  <si>
+    <t>N. Zednik</t>
+  </si>
+  <si>
+    <t>Backa Topola</t>
+  </si>
+  <si>
+    <t>Naumovicevo</t>
+  </si>
+  <si>
+    <t>Sremska Mitrovica</t>
   </si>
 </sst>
 </file>
@@ -724,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N1201"/>
+  <dimension ref="B1:O1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="206" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="206" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -748,14 +766,14 @@
     <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="2" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="3" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="4" spans="2:14" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:14" ht="3.75" customHeight="1"/>
-    <row r="6" spans="2:14" ht="3" customHeight="1"/>
-    <row r="7" spans="2:14" ht="1.5" customHeight="1"/>
-    <row r="8" spans="2:14">
+    <row r="1" spans="2:15" ht="7.5" customHeight="1"/>
+    <row r="2" spans="2:15" ht="7.5" customHeight="1"/>
+    <row r="3" spans="2:15" ht="7.5" customHeight="1"/>
+    <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
+    <row r="5" spans="2:15" ht="3.75" customHeight="1"/>
+    <row r="6" spans="2:15" ht="3" customHeight="1"/>
+    <row r="7" spans="2:15" ht="1.5" customHeight="1"/>
+    <row r="8" spans="2:15">
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
@@ -764,8 +782,8 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="10" spans="2:14" ht="20">
+    <row r="9" spans="2:15" ht="8.25" customHeight="1"/>
+    <row r="10" spans="2:15" ht="20">
       <c r="D10" s="12"/>
       <c r="E10" s="8" t="s">
         <v>13</v>
@@ -777,10 +795,10 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="2:14" ht="7.5" customHeight="1">
+    <row r="11" spans="2:15" ht="7.5" customHeight="1">
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:14" ht="12.75" customHeight="1">
+    <row r="12" spans="2:15" ht="12.75" customHeight="1">
       <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
@@ -796,7 +814,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
     </row>
-    <row r="13" spans="2:14" s="2" customFormat="1" ht="28.5" customHeight="1">
+    <row r="13" spans="2:15" s="2" customFormat="1" ht="28.5" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
         <v>4</v>
@@ -834,8 +852,11 @@
       <c r="N13" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O13" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
@@ -875,8 +896,11 @@
       <c r="N14" s="26">
         <v>17200</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O14" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
@@ -916,8 +940,11 @@
       <c r="N15" s="26">
         <v>18050</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O15" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
@@ -957,8 +984,11 @@
       <c r="N16" s="26">
         <v>19190</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O16" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
@@ -998,8 +1028,11 @@
       <c r="N17" s="26">
         <v>16840</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O17" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="N18" s="26">
         <v>18370</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O18" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -1080,8 +1116,11 @@
       <c r="N19" s="26">
         <v>19330</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O19" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
@@ -1121,8 +1160,11 @@
       <c r="N20" s="26">
         <v>20130</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O20" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
@@ -1162,8 +1204,11 @@
       <c r="N21" s="26">
         <v>17690</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O21" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="22" t="s">
         <v>14</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="N22" s="26">
         <v>18300</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O22" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1292,11 @@
       <c r="N23" s="26">
         <v>18970</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O23" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="22" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +1336,11 @@
       <c r="N24" s="26">
         <v>17870</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O24" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
@@ -1326,8 +1380,11 @@
       <c r="N25" s="26">
         <v>18100</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O25" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1367,8 +1424,11 @@
       <c r="N26" s="26">
         <v>18170</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O26" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>14</v>
       </c>
@@ -1408,8 +1468,11 @@
       <c r="N27" s="26">
         <v>17020</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O27" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1512,11 @@
       <c r="N28" s="26">
         <v>20200</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O28" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B29" s="22" t="s">
         <v>14</v>
       </c>
@@ -1490,8 +1556,11 @@
       <c r="N29" s="26">
         <v>18540</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O29" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B30" s="22" t="s">
         <v>14</v>
       </c>
@@ -1531,8 +1600,11 @@
       <c r="N30" s="26">
         <v>6690</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O30" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B31" s="22" t="s">
         <v>14</v>
       </c>
@@ -1572,8 +1644,11 @@
       <c r="N31" s="26">
         <v>18680</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O31" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1613,8 +1688,11 @@
       <c r="N32" s="26">
         <v>12020</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O32" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>14</v>
       </c>
@@ -1654,8 +1732,11 @@
       <c r="N33" s="26">
         <v>10110</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O33" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>14</v>
       </c>
@@ -1695,8 +1776,11 @@
       <c r="N34" s="26">
         <v>17960</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O34" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B35" s="22" t="s">
         <v>14</v>
       </c>
@@ -1736,8 +1820,11 @@
       <c r="N35" s="26">
         <v>18240</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O35" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>14</v>
       </c>
@@ -1777,8 +1864,11 @@
       <c r="N36" s="26">
         <v>6830</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O36" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B37" s="22" t="s">
         <v>14</v>
       </c>
@@ -1818,8 +1908,11 @@
       <c r="N37" s="26">
         <v>14710</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O37" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B38" s="22" t="s">
         <v>14</v>
       </c>
@@ -1859,8 +1952,11 @@
       <c r="N38" s="26">
         <v>18010</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O38" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B39" s="22" t="s">
         <v>14</v>
       </c>
@@ -1900,8 +1996,11 @@
       <c r="N39" s="26">
         <v>18250</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O39" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B40" s="22" t="s">
         <v>14</v>
       </c>
@@ -1941,8 +2040,11 @@
       <c r="N40" s="26">
         <v>20020</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O40" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B41" s="22" t="s">
         <v>14</v>
       </c>
@@ -1982,8 +2084,11 @@
       <c r="N41" s="26">
         <v>18470</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O41" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B42" s="22" t="s">
         <v>14</v>
       </c>
@@ -2023,8 +2128,11 @@
       <c r="N42" s="26">
         <v>18150</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O42" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="22" t="s">
         <v>14</v>
       </c>
@@ -2064,8 +2172,11 @@
       <c r="N43" s="26">
         <v>18500</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O43" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="22" t="s">
         <v>14</v>
       </c>
@@ -2105,8 +2216,11 @@
       <c r="N44" s="26">
         <v>18660</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O44" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="22" t="s">
         <v>14</v>
       </c>
@@ -2146,8 +2260,11 @@
       <c r="N45" s="26">
         <v>18400</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="O45" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="13"/>
@@ -2162,7 +2279,7 @@
         <v>547670</v>
       </c>
     </row>
-    <row r="47" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="13"/>
@@ -2174,7 +2291,7 @@
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
     </row>
-    <row r="48" spans="2:14" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="13"/>
